--- a/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
+++ b/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AC587-3D88-43EE-98C1-A30A665D624C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D4747-E1CE-4DE8-B7AD-2241A3E3E8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26850" yWindow="7800" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="264">
   <si>
     <t>clause</t>
   </si>
@@ -802,6 +802,24 @@
   </si>
   <si>
     <t>Velvet top butt rot (Phaeolus schweinitzii)</t>
+  </si>
+  <si>
+    <t>Support percentage</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A8133D-3FC4-43E4-B3AE-EB32F6785EEA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1293,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,52 +1354,52 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>15</v>
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,10 +1407,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,10 +1418,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,38 +1429,32 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,10 +1465,10 @@
         <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,10 +1479,10 @@
         <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,13 +1490,13 @@
         <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,57 +1504,57 @@
         <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,25 +1565,53 @@
         <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>

--- a/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
+++ b/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\OSU_Capstone_MAFE\odk_app\config\tables\mortality\forms\mortality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B049C6-417E-4A2C-A41C-56CCA3EF6A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E4B1E-1D14-4127-90B3-DD131F9DD6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="5640" windowWidth="21600" windowHeight="11520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25230" yWindow="8190" windowWidth="21600" windowHeight="11520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="survey" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="287">
   <si>
     <t>setting_name</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Stand</t>
+  </si>
+  <si>
+    <t>TreeID</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -1550,24 +1553,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,24 +1578,21 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,242 +1600,242 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>64</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,13 +1885,13 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,18 +1902,24 @@
         <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1921,21 +1927,15 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,10 +1946,10 @@
         <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,25 +1960,39 @@
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>95</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
     </row>

--- a/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
+++ b/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E4B1E-1D14-4127-90B3-DD131F9DD6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E5559-8259-4C38-A24D-9D734B532D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25230" yWindow="8190" windowWidth="21600" windowHeight="11520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>detailViewFileName</t>
   </si>
   <si>
-    <t>config/tables/mortality/html/mortality_detail.html</t>
-  </si>
-  <si>
     <t>listViewFileName</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>TreeID</t>
+  </si>
+  <si>
+    <t>config/assets/form.html</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,13 +1485,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1522,33 +1522,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,85 +1567,85 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" t="s">
         <v>284</v>
-      </c>
-      <c r="F4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1656,17 +1656,17 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1676,27 +1676,27 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1707,17 +1707,17 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1727,27 +1727,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1758,17 +1758,17 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1778,27 +1778,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>63</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>64</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1809,17 +1809,17 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1829,171 +1829,171 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
         <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>80</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
         <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
       <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
         <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +2019,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2030,35 +2030,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,57 +2066,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,46 +2124,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
         <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
         <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
         <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,35 +2171,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,35 +2207,35 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,1179 +2243,1179 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="5">
         <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="5">
         <v>3</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="5">
         <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="5">
         <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="5">
         <v>12</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="5">
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" s="5">
         <v>14</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" s="5">
         <v>21</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="5">
         <v>22</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B92" s="5">
         <v>41</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="5">
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B94" s="5">
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95" s="5">
         <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" s="5">
         <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="5">
         <v>53</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="5">
         <v>54</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="5">
         <v>55</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B100" s="5">
         <v>56</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" s="5">
         <v>60</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="5">
         <v>71</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" s="5">
         <v>72</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" s="5">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="5">
         <v>1</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" s="5">
         <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" s="5">
         <v>10</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B109" s="5">
         <v>11</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" s="5">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B111" s="5">
         <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B112" s="5">
         <v>14</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B113" s="5">
         <v>20</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B114" s="5">
         <v>21</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115" s="5">
         <v>22</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B116" s="5">
         <v>23</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B117" s="5">
         <v>24</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B118" s="5">
         <v>30</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="5">
         <v>31</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="5">
         <v>32</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121" s="5">
         <v>33</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B122" s="5">
         <v>34</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="5">
         <v>40</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124" s="5">
         <v>50</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B125" s="5">
         <v>60</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126" s="5">
         <v>70</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
+++ b/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E5559-8259-4C38-A24D-9D734B532D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F495F5-DBEB-48E4-837C-3EA65CFAF4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="6540" windowWidth="13080" windowHeight="15060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
     <t>TreeID</t>
   </si>
   <si>
-    <t>config/assets/form.html</t>
+    <t>config/assets/html/form.html</t>
   </si>
 </sst>
 </file>

--- a/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
+++ b/odk_app/config/tables/mortality/forms/mortality/mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\mortality\forms\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F495F5-DBEB-48E4-837C-3EA65CFAF4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F53B143-39F6-4FA9-98DD-ACAEC5D187DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="6540" windowWidth="13080" windowHeight="15060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9825" yWindow="4665" windowWidth="13080" windowHeight="15060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>listViewFileName</t>
   </si>
   <si>
-    <t>config/tables/mortality/html/mortality_list.html</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>config/assets/html/form.html</t>
+  </si>
+  <si>
+    <t>config/assets/html/tree_record_list.html</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -1522,33 +1522,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,85 +1567,85 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
         <v>283</v>
-      </c>
-      <c r="F4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1656,17 +1656,17 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1676,27 +1676,27 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1707,17 +1707,17 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1727,27 +1727,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1758,17 +1758,17 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1778,27 +1778,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>63</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1809,17 +1809,17 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1829,171 +1829,171 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
         <v>72</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
         <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
         <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
         <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
         <v>85</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>86</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>87</v>
-      </c>
-      <c r="F34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
       </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
       <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
         <v>89</v>
-      </c>
-      <c r="F35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
       <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
         <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>94</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +2019,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2030,35 +2030,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,57 +2066,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,46 +2124,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
         <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,35 +2171,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,35 +2207,35 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,1179 +2243,1179 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="5">
         <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="5">
         <v>3</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="5">
         <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="5">
         <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="5">
         <v>12</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="5">
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="5">
         <v>14</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="5">
         <v>21</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91" s="5">
         <v>22</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="5">
         <v>41</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" s="5">
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="5">
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="5">
         <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="5">
         <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="5">
         <v>53</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B98" s="5">
         <v>54</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="5">
         <v>55</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B100" s="5">
         <v>56</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B101" s="5">
         <v>60</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="5">
         <v>71</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B103" s="5">
         <v>72</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B104" s="5">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="5">
         <v>1</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="5">
         <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="5">
         <v>10</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="5">
         <v>11</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="5">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111" s="5">
         <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" s="5">
         <v>14</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" s="5">
         <v>20</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="5">
         <v>21</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="5">
         <v>22</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B116" s="5">
         <v>23</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B117" s="5">
         <v>24</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118" s="5">
         <v>30</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119" s="5">
         <v>31</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" s="5">
         <v>32</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B121" s="5">
         <v>33</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" s="5">
         <v>34</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123" s="5">
         <v>40</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B124" s="5">
         <v>50</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B125" s="5">
         <v>60</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="5">
         <v>70</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
